--- a/medicine/Handicap/Paraplégie/Paraplégie.xlsx
+++ b/medicine/Handicap/Paraplégie/Paraplégie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie</t>
+          <t>Paraplégie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paraplégie est la paralysie plus ou moins complète des deux membres inférieurs et de la partie basse du tronc, portant sur tout le territoire situé plus bas que la lésion de la moelle épinière qui la provoque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie</t>
+          <t>Paraplégie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La paralysie des deux membres inférieurs est due à une compression ou à une lésion de la moelle épinière au niveau dorso lombaire.
 La paralysie des deux membres supérieurs sans l'atteinte des membres inférieurs n'est pas possible car à l'endroit de la moelle où passent les fibres nerveuses pour le bras passent aussi les fibres nerveuses pour les membres inférieurs (à moins de considérer deux lésions latérales à la moelle épinière ou une compression). 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie</t>
+          <t>Paraplégie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle est généralement associée à des troubles moteurs, vésico-sphinctériens et génito-urinaires, dont la gravité varie suivant le niveau de la lésion et surtout suivant les personnes.
 Cependant, tant que la lésion ne touche pas précisément la vertèbre, les fonctions sexuelles généralement reviennent sous forme de réflexes.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie</t>
+          <t>Paraplégie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Perspectives thérapeutiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune thérapie capable de réparer une lésion à la moelle épinière n'a encore été approuvée. En revanche, le traitement expérimental le plus avancé (en préparation pour des essais cliniques de phase IIb) est un activateur du générateur central de patrons locomoteurs (CPG en anglais) appelé Spinalon qui fut découvert et développé par le Dr. Pierre A. Guertin.
 </t>
